--- a/Excel/Carga DB Postgres/InfractorContraventor - cargado.xlsx
+++ b/Excel/Carga DB Postgres/InfractorContraventor - cargado.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="18915" windowHeight="7995"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="18912" windowHeight="7992"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="52">
   <si>
     <t>idinfractorcontraventor</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>PHILIPP CHOCANO FEDERICO RODRIGO</t>
-  </si>
-  <si>
-    <t>DNI</t>
   </si>
 </sst>
 </file>
@@ -509,13 +506,13 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -542,8 +539,8 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>52</v>
+      <c r="D2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -556,8 +553,8 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>52</v>
+      <c r="D3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -570,8 +567,8 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>52</v>
+      <c r="D4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -584,8 +581,8 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>52</v>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -598,8 +595,8 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
-        <v>52</v>
+      <c r="D6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -612,8 +609,8 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
-        <v>52</v>
+      <c r="D7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -626,8 +623,8 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>52</v>
+      <c r="D8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -640,8 +637,8 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
-        <v>52</v>
+      <c r="D9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -654,8 +651,8 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
-        <v>52</v>
+      <c r="D10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -668,8 +665,8 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" t="s">
-        <v>52</v>
+      <c r="D11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -682,8 +679,8 @@
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
-        <v>52</v>
+      <c r="D12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -696,8 +693,8 @@
       <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
-        <v>52</v>
+      <c r="D13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -710,8 +707,8 @@
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14" t="s">
-        <v>52</v>
+      <c r="D14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -724,8 +721,8 @@
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15" t="s">
-        <v>52</v>
+      <c r="D15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -738,8 +735,8 @@
       <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" t="s">
-        <v>52</v>
+      <c r="D16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -752,8 +749,8 @@
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" t="s">
-        <v>52</v>
+      <c r="D17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -766,8 +763,8 @@
       <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="D18" t="s">
-        <v>52</v>
+      <c r="D18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -780,8 +777,8 @@
       <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="D19" t="s">
-        <v>52</v>
+      <c r="D19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -794,8 +791,8 @@
       <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="D20" t="s">
-        <v>52</v>
+      <c r="D20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -808,8 +805,8 @@
       <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="D21" t="s">
-        <v>52</v>
+      <c r="D21">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -822,8 +819,8 @@
       <c r="C22" t="s">
         <v>7</v>
       </c>
-      <c r="D22" t="s">
-        <v>52</v>
+      <c r="D22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -836,8 +833,8 @@
       <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="D23" t="s">
-        <v>52</v>
+      <c r="D23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -850,8 +847,8 @@
       <c r="C24" t="s">
         <v>7</v>
       </c>
-      <c r="D24" t="s">
-        <v>52</v>
+      <c r="D24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -864,8 +861,8 @@
       <c r="C25" t="s">
         <v>7</v>
       </c>
-      <c r="D25" t="s">
-        <v>52</v>
+      <c r="D25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -878,8 +875,8 @@
       <c r="C26" t="s">
         <v>7</v>
       </c>
-      <c r="D26" t="s">
-        <v>52</v>
+      <c r="D26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -892,8 +889,8 @@
       <c r="C27" t="s">
         <v>7</v>
       </c>
-      <c r="D27" t="s">
-        <v>52</v>
+      <c r="D27">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -906,8 +903,8 @@
       <c r="C28" t="s">
         <v>7</v>
       </c>
-      <c r="D28" t="s">
-        <v>52</v>
+      <c r="D28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -920,8 +917,8 @@
       <c r="C29" t="s">
         <v>7</v>
       </c>
-      <c r="D29" t="s">
-        <v>52</v>
+      <c r="D29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -934,8 +931,8 @@
       <c r="C30" t="s">
         <v>7</v>
       </c>
-      <c r="D30" t="s">
-        <v>52</v>
+      <c r="D30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -948,8 +945,8 @@
       <c r="C31" t="s">
         <v>7</v>
       </c>
-      <c r="D31" t="s">
-        <v>52</v>
+      <c r="D31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -962,8 +959,8 @@
       <c r="C32" t="s">
         <v>7</v>
       </c>
-      <c r="D32" t="s">
-        <v>52</v>
+      <c r="D32">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -976,8 +973,8 @@
       <c r="C33" t="s">
         <v>7</v>
       </c>
-      <c r="D33" t="s">
-        <v>52</v>
+      <c r="D33">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -990,8 +987,8 @@
       <c r="C34" t="s">
         <v>7</v>
       </c>
-      <c r="D34" t="s">
-        <v>52</v>
+      <c r="D34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1004,8 +1001,8 @@
       <c r="C35" t="s">
         <v>7</v>
       </c>
-      <c r="D35" t="s">
-        <v>52</v>
+      <c r="D35">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1018,8 +1015,8 @@
       <c r="C36" t="s">
         <v>7</v>
       </c>
-      <c r="D36" t="s">
-        <v>52</v>
+      <c r="D36">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1032,8 +1029,8 @@
       <c r="C37" t="s">
         <v>7</v>
       </c>
-      <c r="D37" t="s">
-        <v>52</v>
+      <c r="D37">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1046,8 +1043,8 @@
       <c r="C38" t="s">
         <v>7</v>
       </c>
-      <c r="D38" t="s">
-        <v>52</v>
+      <c r="D38">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1060,8 +1057,8 @@
       <c r="C39" t="s">
         <v>7</v>
       </c>
-      <c r="D39" t="s">
-        <v>52</v>
+      <c r="D39">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1074,8 +1071,8 @@
       <c r="C40" t="s">
         <v>7</v>
       </c>
-      <c r="D40" t="s">
-        <v>52</v>
+      <c r="D40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1088,8 +1085,8 @@
       <c r="C41" t="s">
         <v>7</v>
       </c>
-      <c r="D41" t="s">
-        <v>52</v>
+      <c r="D41">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1102,8 +1099,8 @@
       <c r="C42" t="s">
         <v>7</v>
       </c>
-      <c r="D42" t="s">
-        <v>52</v>
+      <c r="D42">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1116,8 +1113,8 @@
       <c r="C43" t="s">
         <v>7</v>
       </c>
-      <c r="D43" t="s">
-        <v>52</v>
+      <c r="D43">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1130,8 +1127,8 @@
       <c r="C44" t="s">
         <v>7</v>
       </c>
-      <c r="D44" t="s">
-        <v>52</v>
+      <c r="D44">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1144,8 +1141,8 @@
       <c r="C45" t="s">
         <v>7</v>
       </c>
-      <c r="D45" t="s">
-        <v>52</v>
+      <c r="D45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1158,8 +1155,8 @@
       <c r="C46" t="s">
         <v>7</v>
       </c>
-      <c r="D46" t="s">
-        <v>52</v>
+      <c r="D46">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1172,8 +1169,8 @@
       <c r="C47" t="s">
         <v>7</v>
       </c>
-      <c r="D47" t="s">
-        <v>52</v>
+      <c r="D47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1186,8 +1183,8 @@
       <c r="C48" t="s">
         <v>7</v>
       </c>
-      <c r="D48" t="s">
-        <v>52</v>
+      <c r="D48">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1200,8 +1197,8 @@
       <c r="C49" t="s">
         <v>7</v>
       </c>
-      <c r="D49" t="s">
-        <v>52</v>
+      <c r="D49">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1214,8 +1211,8 @@
       <c r="C50" t="s">
         <v>7</v>
       </c>
-      <c r="D50" t="s">
-        <v>52</v>
+      <c r="D50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1228,8 +1225,8 @@
       <c r="C51" t="s">
         <v>7</v>
       </c>
-      <c r="D51" t="s">
-        <v>52</v>
+      <c r="D51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1242,8 +1239,8 @@
       <c r="C52" t="s">
         <v>7</v>
       </c>
-      <c r="D52" t="s">
-        <v>52</v>
+      <c r="D52">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1256,8 +1253,8 @@
       <c r="C53" t="s">
         <v>7</v>
       </c>
-      <c r="D53" t="s">
-        <v>52</v>
+      <c r="D53">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1270,8 +1267,8 @@
       <c r="C54" t="s">
         <v>7</v>
       </c>
-      <c r="D54" t="s">
-        <v>52</v>
+      <c r="D54">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1284,8 +1281,8 @@
       <c r="C55" t="s">
         <v>7</v>
       </c>
-      <c r="D55" t="s">
-        <v>52</v>
+      <c r="D55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1298,8 +1295,8 @@
       <c r="C56" t="s">
         <v>7</v>
       </c>
-      <c r="D56" t="s">
-        <v>52</v>
+      <c r="D56">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1312,8 +1309,8 @@
       <c r="C57" t="s">
         <v>7</v>
       </c>
-      <c r="D57" t="s">
-        <v>52</v>
+      <c r="D57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1326,8 +1323,8 @@
       <c r="C58" t="s">
         <v>7</v>
       </c>
-      <c r="D58" t="s">
-        <v>52</v>
+      <c r="D58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1340,8 +1337,8 @@
       <c r="C59" t="s">
         <v>7</v>
       </c>
-      <c r="D59" t="s">
-        <v>52</v>
+      <c r="D59">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1354,8 +1351,8 @@
       <c r="C60" t="s">
         <v>7</v>
       </c>
-      <c r="D60" t="s">
-        <v>52</v>
+      <c r="D60">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1368,8 +1365,8 @@
       <c r="C61" t="s">
         <v>7</v>
       </c>
-      <c r="D61" t="s">
-        <v>52</v>
+      <c r="D61">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1382,8 +1379,8 @@
       <c r="C62" t="s">
         <v>7</v>
       </c>
-      <c r="D62" t="s">
-        <v>52</v>
+      <c r="D62">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1396,8 +1393,8 @@
       <c r="C63" t="s">
         <v>7</v>
       </c>
-      <c r="D63" t="s">
-        <v>52</v>
+      <c r="D63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1410,8 +1407,8 @@
       <c r="C64" t="s">
         <v>7</v>
       </c>
-      <c r="D64" t="s">
-        <v>52</v>
+      <c r="D64">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1424,8 +1421,8 @@
       <c r="C65" t="s">
         <v>7</v>
       </c>
-      <c r="D65" t="s">
-        <v>52</v>
+      <c r="D65">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1438,8 +1435,8 @@
       <c r="C66" t="s">
         <v>7</v>
       </c>
-      <c r="D66" t="s">
-        <v>52</v>
+      <c r="D66">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1452,8 +1449,8 @@
       <c r="C67" t="s">
         <v>7</v>
       </c>
-      <c r="D67" t="s">
-        <v>52</v>
+      <c r="D67">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1466,8 +1463,8 @@
       <c r="C68" t="s">
         <v>7</v>
       </c>
-      <c r="D68" t="s">
-        <v>52</v>
+      <c r="D68">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1480,8 +1477,8 @@
       <c r="C69" t="s">
         <v>7</v>
       </c>
-      <c r="D69" t="s">
-        <v>52</v>
+      <c r="D69">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1494,8 +1491,8 @@
       <c r="C70" t="s">
         <v>7</v>
       </c>
-      <c r="D70" t="s">
-        <v>52</v>
+      <c r="D70">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1508,8 +1505,8 @@
       <c r="C71" t="s">
         <v>7</v>
       </c>
-      <c r="D71" t="s">
-        <v>52</v>
+      <c r="D71">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1522,8 +1519,8 @@
       <c r="C72" t="s">
         <v>7</v>
       </c>
-      <c r="D72" t="s">
-        <v>52</v>
+      <c r="D72">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1536,8 +1533,8 @@
       <c r="C73" t="s">
         <v>7</v>
       </c>
-      <c r="D73" t="s">
-        <v>52</v>
+      <c r="D73">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1550,8 +1547,8 @@
       <c r="C74" t="s">
         <v>7</v>
       </c>
-      <c r="D74" t="s">
-        <v>52</v>
+      <c r="D74">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1565,7 +1562,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1577,7 +1574,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Carga DB Postgres/InfractorContraventor - cargado.xlsx
+++ b/Excel/Carga DB Postgres/InfractorContraventor - cargado.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="53">
   <si>
     <t>idinfractorcontraventor</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>PHILIPP CHOCANO FEDERICO RODRIGO</t>
+  </si>
+  <si>
+    <t>DNI</t>
   </si>
 </sst>
 </file>
@@ -506,7 +509,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -539,8 +542,8 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -553,8 +556,8 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="D3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -567,8 +570,8 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="D4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -581,8 +584,8 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -595,8 +598,8 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="D6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -609,8 +612,8 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7">
-        <v>1</v>
+      <c r="D7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -623,8 +626,8 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>1</v>
+      <c r="D8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -637,8 +640,8 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>1</v>
+      <c r="D9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -651,8 +654,8 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10">
-        <v>1</v>
+      <c r="D10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -665,8 +668,8 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11">
-        <v>1</v>
+      <c r="D11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -679,8 +682,8 @@
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12">
-        <v>1</v>
+      <c r="D12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -693,8 +696,8 @@
       <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13">
-        <v>1</v>
+      <c r="D13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -707,8 +710,8 @@
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14">
-        <v>1</v>
+      <c r="D14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -721,8 +724,8 @@
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15">
-        <v>1</v>
+      <c r="D15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -735,8 +738,8 @@
       <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D16">
-        <v>1</v>
+      <c r="D16" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -749,8 +752,8 @@
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17">
-        <v>1</v>
+      <c r="D17" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -763,8 +766,8 @@
       <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="D18">
-        <v>1</v>
+      <c r="D18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -777,8 +780,8 @@
       <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="D19">
-        <v>1</v>
+      <c r="D19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -791,8 +794,8 @@
       <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="D20">
-        <v>1</v>
+      <c r="D20" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -805,8 +808,8 @@
       <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="D21">
-        <v>1</v>
+      <c r="D21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -819,8 +822,8 @@
       <c r="C22" t="s">
         <v>7</v>
       </c>
-      <c r="D22">
-        <v>1</v>
+      <c r="D22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -833,8 +836,8 @@
       <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="D23">
-        <v>1</v>
+      <c r="D23" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -847,8 +850,8 @@
       <c r="C24" t="s">
         <v>7</v>
       </c>
-      <c r="D24">
-        <v>1</v>
+      <c r="D24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -861,8 +864,8 @@
       <c r="C25" t="s">
         <v>7</v>
       </c>
-      <c r="D25">
-        <v>1</v>
+      <c r="D25" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -875,8 +878,8 @@
       <c r="C26" t="s">
         <v>7</v>
       </c>
-      <c r="D26">
-        <v>1</v>
+      <c r="D26" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -889,8 +892,8 @@
       <c r="C27" t="s">
         <v>7</v>
       </c>
-      <c r="D27">
-        <v>1</v>
+      <c r="D27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -903,8 +906,8 @@
       <c r="C28" t="s">
         <v>7</v>
       </c>
-      <c r="D28">
-        <v>1</v>
+      <c r="D28" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -917,8 +920,8 @@
       <c r="C29" t="s">
         <v>7</v>
       </c>
-      <c r="D29">
-        <v>1</v>
+      <c r="D29" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -931,8 +934,8 @@
       <c r="C30" t="s">
         <v>7</v>
       </c>
-      <c r="D30">
-        <v>1</v>
+      <c r="D30" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -945,8 +948,8 @@
       <c r="C31" t="s">
         <v>7</v>
       </c>
-      <c r="D31">
-        <v>1</v>
+      <c r="D31" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -959,8 +962,8 @@
       <c r="C32" t="s">
         <v>7</v>
       </c>
-      <c r="D32">
-        <v>1</v>
+      <c r="D32" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -973,8 +976,8 @@
       <c r="C33" t="s">
         <v>7</v>
       </c>
-      <c r="D33">
-        <v>1</v>
+      <c r="D33" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -987,8 +990,8 @@
       <c r="C34" t="s">
         <v>7</v>
       </c>
-      <c r="D34">
-        <v>1</v>
+      <c r="D34" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1001,8 +1004,8 @@
       <c r="C35" t="s">
         <v>7</v>
       </c>
-      <c r="D35">
-        <v>1</v>
+      <c r="D35" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1015,8 +1018,8 @@
       <c r="C36" t="s">
         <v>7</v>
       </c>
-      <c r="D36">
-        <v>1</v>
+      <c r="D36" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1029,8 +1032,8 @@
       <c r="C37" t="s">
         <v>7</v>
       </c>
-      <c r="D37">
-        <v>1</v>
+      <c r="D37" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1043,8 +1046,8 @@
       <c r="C38" t="s">
         <v>7</v>
       </c>
-      <c r="D38">
-        <v>1</v>
+      <c r="D38" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1057,8 +1060,8 @@
       <c r="C39" t="s">
         <v>7</v>
       </c>
-      <c r="D39">
-        <v>1</v>
+      <c r="D39" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1071,8 +1074,8 @@
       <c r="C40" t="s">
         <v>7</v>
       </c>
-      <c r="D40">
-        <v>1</v>
+      <c r="D40" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1085,8 +1088,8 @@
       <c r="C41" t="s">
         <v>7</v>
       </c>
-      <c r="D41">
-        <v>1</v>
+      <c r="D41" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1099,8 +1102,8 @@
       <c r="C42" t="s">
         <v>7</v>
       </c>
-      <c r="D42">
-        <v>1</v>
+      <c r="D42" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1113,8 +1116,8 @@
       <c r="C43" t="s">
         <v>7</v>
       </c>
-      <c r="D43">
-        <v>1</v>
+      <c r="D43" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1127,8 +1130,8 @@
       <c r="C44" t="s">
         <v>7</v>
       </c>
-      <c r="D44">
-        <v>1</v>
+      <c r="D44" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1141,8 +1144,8 @@
       <c r="C45" t="s">
         <v>7</v>
       </c>
-      <c r="D45">
-        <v>1</v>
+      <c r="D45" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1155,8 +1158,8 @@
       <c r="C46" t="s">
         <v>7</v>
       </c>
-      <c r="D46">
-        <v>1</v>
+      <c r="D46" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1169,8 +1172,8 @@
       <c r="C47" t="s">
         <v>7</v>
       </c>
-      <c r="D47">
-        <v>1</v>
+      <c r="D47" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1183,8 +1186,8 @@
       <c r="C48" t="s">
         <v>7</v>
       </c>
-      <c r="D48">
-        <v>1</v>
+      <c r="D48" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1197,8 +1200,8 @@
       <c r="C49" t="s">
         <v>7</v>
       </c>
-      <c r="D49">
-        <v>1</v>
+      <c r="D49" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1211,8 +1214,8 @@
       <c r="C50" t="s">
         <v>7</v>
       </c>
-      <c r="D50">
-        <v>1</v>
+      <c r="D50" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1225,8 +1228,8 @@
       <c r="C51" t="s">
         <v>7</v>
       </c>
-      <c r="D51">
-        <v>1</v>
+      <c r="D51" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1239,8 +1242,8 @@
       <c r="C52" t="s">
         <v>7</v>
       </c>
-      <c r="D52">
-        <v>1</v>
+      <c r="D52" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1253,8 +1256,8 @@
       <c r="C53" t="s">
         <v>7</v>
       </c>
-      <c r="D53">
-        <v>1</v>
+      <c r="D53" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1267,8 +1270,8 @@
       <c r="C54" t="s">
         <v>7</v>
       </c>
-      <c r="D54">
-        <v>1</v>
+      <c r="D54" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1281,8 +1284,8 @@
       <c r="C55" t="s">
         <v>7</v>
       </c>
-      <c r="D55">
-        <v>1</v>
+      <c r="D55" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1295,8 +1298,8 @@
       <c r="C56" t="s">
         <v>7</v>
       </c>
-      <c r="D56">
-        <v>1</v>
+      <c r="D56" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1309,8 +1312,8 @@
       <c r="C57" t="s">
         <v>7</v>
       </c>
-      <c r="D57">
-        <v>1</v>
+      <c r="D57" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1323,8 +1326,8 @@
       <c r="C58" t="s">
         <v>7</v>
       </c>
-      <c r="D58">
-        <v>1</v>
+      <c r="D58" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1337,8 +1340,8 @@
       <c r="C59" t="s">
         <v>7</v>
       </c>
-      <c r="D59">
-        <v>1</v>
+      <c r="D59" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1351,8 +1354,8 @@
       <c r="C60" t="s">
         <v>7</v>
       </c>
-      <c r="D60">
-        <v>1</v>
+      <c r="D60" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1365,8 +1368,8 @@
       <c r="C61" t="s">
         <v>7</v>
       </c>
-      <c r="D61">
-        <v>1</v>
+      <c r="D61" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1379,8 +1382,8 @@
       <c r="C62" t="s">
         <v>7</v>
       </c>
-      <c r="D62">
-        <v>1</v>
+      <c r="D62" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1393,8 +1396,8 @@
       <c r="C63" t="s">
         <v>7</v>
       </c>
-      <c r="D63">
-        <v>1</v>
+      <c r="D63" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1407,8 +1410,8 @@
       <c r="C64" t="s">
         <v>7</v>
       </c>
-      <c r="D64">
-        <v>1</v>
+      <c r="D64" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1421,8 +1424,8 @@
       <c r="C65" t="s">
         <v>7</v>
       </c>
-      <c r="D65">
-        <v>1</v>
+      <c r="D65" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1435,8 +1438,8 @@
       <c r="C66" t="s">
         <v>7</v>
       </c>
-      <c r="D66">
-        <v>1</v>
+      <c r="D66" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1449,8 +1452,8 @@
       <c r="C67" t="s">
         <v>7</v>
       </c>
-      <c r="D67">
-        <v>1</v>
+      <c r="D67" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1463,8 +1466,8 @@
       <c r="C68" t="s">
         <v>7</v>
       </c>
-      <c r="D68">
-        <v>1</v>
+      <c r="D68" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1477,8 +1480,8 @@
       <c r="C69" t="s">
         <v>7</v>
       </c>
-      <c r="D69">
-        <v>1</v>
+      <c r="D69" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1491,8 +1494,8 @@
       <c r="C70" t="s">
         <v>7</v>
       </c>
-      <c r="D70">
-        <v>1</v>
+      <c r="D70" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1505,8 +1508,8 @@
       <c r="C71" t="s">
         <v>7</v>
       </c>
-      <c r="D71">
-        <v>1</v>
+      <c r="D71" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1519,8 +1522,8 @@
       <c r="C72" t="s">
         <v>7</v>
       </c>
-      <c r="D72">
-        <v>1</v>
+      <c r="D72" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1533,8 +1536,8 @@
       <c r="C73" t="s">
         <v>7</v>
       </c>
-      <c r="D73">
-        <v>1</v>
+      <c r="D73" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1547,8 +1550,8 @@
       <c r="C74" t="s">
         <v>7</v>
       </c>
-      <c r="D74">
-        <v>1</v>
+      <c r="D74" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
